--- a/000004915/тесты - 000004915.xlsx
+++ b/000004915/тесты - 000004915.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>РТУ</t>
   </si>
@@ -48,19 +48,31 @@
     <t>Дата РТУ = Дата ПКО(ЭО); Сумма1 = Сумма2, соглашение - по документам</t>
   </si>
   <si>
-    <t>Дата РТУ &gt; Дата ПКО(ЭО); Сумма1 = Сумма2, соглашение - по документам</t>
-  </si>
-  <si>
-    <t>Дата РТУ &lt; Дата ПКО(ЭО); Сумма1 = Сумма2, соглашение - по документам</t>
-  </si>
-  <si>
-    <t>Дата РТУ = Дата ПКО(ЭО); Сумма1 &gt; Сумма2, соглашение - по документам</t>
-  </si>
-  <si>
-    <t>Дата РТУ = Дата ПКО(ЭО); Сумма1 &lt; Сумма2, соглашение - по документам</t>
-  </si>
-  <si>
-    <t>Дата РТУ = Дата ПКО(ЭО); Сумма1 = Сумма2, соглашение - по соглашениям</t>
+    <t>Дата РТУ &gt; Дата ПКО(ЭО); СуммаДокументаПродажи = СуммаДокументаПродажи, соглашение - по документам</t>
+  </si>
+  <si>
+    <t>Дата РТУ &lt; Дата ПКО(ЭО); СуммаДокументаПродажи = СуммаДокументаПродажи, соглашение - по документам</t>
+  </si>
+  <si>
+    <t>Дата РТУ = Дата ПКО(ЭО); СуммаДокументаПродажи &gt; СуммаДокументаПродажи, соглашение - по документам</t>
+  </si>
+  <si>
+    <t>Дата РТУ = Дата ПКО(ЭО); СуммаДокументаПродажи &lt; СуммаДокументаПродажи, соглашение - по документам</t>
+  </si>
+  <si>
+    <t>Дата РТУ = Дата ПКО(ЭО);СуммаДокументаПродажи = СуммаДокументаПродажи, соглашение - по соглашениям</t>
+  </si>
+  <si>
+    <t>Дата РТУ &gt; Дата ПКО(ЭО); СуммаДокументаПродажи = СуммаДокументаПродажи, соглашение - по соглашениям</t>
+  </si>
+  <si>
+    <t>Дата РТУ &lt; Дата ПКО(ЭО); СуммаДокументаПродажи = СуммаДокументаПродажи, соглашение - по соглашениям</t>
+  </si>
+  <si>
+    <t>Дата РТУ = Дата ПКО(ЭО); СуммаДокументаПродажи &gt; СуммаДокументаПродажи, соглашение - по соглашениям</t>
+  </si>
+  <si>
+    <t>Дата РТУ = Дата ПКО(ЭО); СуммаДокументаПродажи &lt; СуммаДокументаПродажи, соглашение - по соглашениям</t>
   </si>
 </sst>
 </file>
@@ -382,7 +394,7 @@
   <dimension ref="A2:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T42" sqref="A2:T42"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,11 +485,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
@@ -499,6 +506,9 @@
       <c r="D15">
         <v>100</v>
       </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -510,8 +520,16 @@
       <c r="D16">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -521,8 +539,11 @@
       <c r="D18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -532,8 +553,11 @@
       <c r="D19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -544,7 +568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -555,7 +579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -566,7 +590,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>2</v>
       </c>
@@ -577,7 +601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -588,7 +612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>0</v>
       </c>
@@ -599,7 +623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>1</v>
       </c>
@@ -610,7 +634,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>2</v>
       </c>
@@ -621,7 +645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -632,7 +656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>0</v>
       </c>
